--- a/Data/pyautogy/Listing/listing.xlsx
+++ b/Data/pyautogy/Listing/listing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Company</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Retail</t>
-  </si>
-  <si>
-    <t>KG/L</t>
   </si>
   <si>
     <t>sample</t>
@@ -456,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +481,7 @@
     <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +490,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,13 +548,10 @@
       <c r="S2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="B3" s="3">
         <v>9501025238216</v>
@@ -613,11 +607,8 @@
       <c r="S3" s="2">
         <v>14.75</v>
       </c>
-      <c r="T3" s="1">
-        <v>0.8</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3">
         <v>5065000225774</v>
@@ -672,9 +663,6 @@
       </c>
       <c r="S4" s="2">
         <v>10</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/pyautogy/Listing/listing.xlsx
+++ b/Data/pyautogy/Listing/listing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>Company</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Landing Cost</t>
   </si>
   <si>
-    <t>SP0036</t>
-  </si>
-  <si>
     <t>FROZEN FOOD</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>FROZEN FRUIT</t>
   </si>
   <si>
-    <t>MONTANA CHOPPED MOLOKHIA 3X400GM @SP</t>
-  </si>
-  <si>
     <t>SUP</t>
   </si>
   <si>
@@ -105,19 +99,82 @@
     <t>MONTANA OKRA EXTRA 2X400G</t>
   </si>
   <si>
-    <t>MONTANA CHOP MOLOKHIA 3X400G</t>
-  </si>
-  <si>
     <t>PCS</t>
   </si>
   <si>
-    <t>1X1SET</t>
-  </si>
-  <si>
     <t>Retail</t>
   </si>
   <si>
     <t>sample</t>
+  </si>
+  <si>
+    <t>1X24SET</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>GROCERY</t>
+  </si>
+  <si>
+    <t>SP0496</t>
+  </si>
+  <si>
+    <t>BEVERAGES COLD</t>
+  </si>
+  <si>
+    <t>SPARKALIVE</t>
+  </si>
+  <si>
+    <t>ALKALIVE</t>
+  </si>
+  <si>
+    <t>ALKALIVE WATER STILL GLASS BOTTLE 330ML</t>
+  </si>
+  <si>
+    <t>ALKALIVE WATER STILL GLASS BOTTLE 250ML</t>
+  </si>
+  <si>
+    <t>ALKALIVE WATER SPORTS 760ML</t>
+  </si>
+  <si>
+    <t>ALKALIVE WTR STILL GLSS BTL 330ML</t>
+  </si>
+  <si>
+    <t>ALKALIVE WTR STILL GLSS BTL 250ML</t>
+  </si>
+  <si>
+    <t>SPARKALIVE WATER GLASS BOTTLE 330ML</t>
+  </si>
+  <si>
+    <t>SPARKALIVE WATER GLASS BOTTLE 250ML</t>
+  </si>
+  <si>
+    <t>SPARKALIVE LEMON MINT SPARKLING WATER GLASS BOTTLE 250ML</t>
+  </si>
+  <si>
+    <t>SPARKALIVE MANGO PEACH SPARKLING WATER GLASS BOTTLE 250ML</t>
+  </si>
+  <si>
+    <t>SPARKALIVE WTR GLSS BTL 330ML</t>
+  </si>
+  <si>
+    <t>SPARKALIVE WTR GLSS BTL 250ML</t>
+  </si>
+  <si>
+    <t>SPARKALIVE LMN MNT SPRK 250ML</t>
+  </si>
+  <si>
+    <t>SPARKALIVE MNG PCH SPRK 250ML</t>
+  </si>
+  <si>
+    <t>PCK</t>
+  </si>
+  <si>
+    <t>1X6PCS</t>
+  </si>
+  <si>
+    <t>DRINKING MINERAL</t>
   </si>
 </sst>
 </file>
@@ -141,12 +198,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,7 +235,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,17 +552,33 @@
     <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C1" s="4"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -546,123 +636,460 @@
         <v>18</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
         <v>9501025238216</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="J3" s="5">
         <v>273173</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="P3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="7">
         <v>14</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="7">
         <v>14</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="7">
         <v>14.75</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3">
-        <v>5065000225774</v>
+        <v>6300900540045</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1">
-        <v>273172</v>
+        <v>273186</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="2">
-        <v>9.5</v>
+        <v>17.75</v>
       </c>
       <c r="R4" s="2">
-        <v>9.5</v>
+        <v>2.9583333333333335</v>
       </c>
       <c r="S4" s="2">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3">
+        <v>6300900540144</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1">
+        <v>273187</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>13.25</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2.2083333333333335</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>6300900540076</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1">
+        <v>273188</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>20.75</v>
+      </c>
+      <c r="R6" s="2">
+        <v>3.4583333333333335</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>6300900540120</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1">
+        <v>273189</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>16.25</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6300900540106</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="1">
+        <v>273190</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>17.75</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2.9583333333333335</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>6300900540168</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="1">
+        <v>273191</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>17.75</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2.9583333333333335</v>
+      </c>
+      <c r="S9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6300900540007</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1">
+        <v>273192</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1.375</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/pyautogy/Listing/listing.xlsx
+++ b/Data/pyautogy/Listing/listing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
   <si>
     <t>Company</t>
   </si>
@@ -111,77 +111,107 @@
     <t>1X24SET</t>
   </si>
   <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>GROCERY</t>
-  </si>
-  <si>
-    <t>SP0496</t>
-  </si>
-  <si>
-    <t>BEVERAGES COLD</t>
-  </si>
-  <si>
-    <t>SPARKALIVE</t>
-  </si>
-  <si>
-    <t>ALKALIVE</t>
-  </si>
-  <si>
-    <t>ALKALIVE WATER STILL GLASS BOTTLE 330ML</t>
-  </si>
-  <si>
-    <t>ALKALIVE WATER STILL GLASS BOTTLE 250ML</t>
-  </si>
-  <si>
-    <t>ALKALIVE WATER SPORTS 760ML</t>
-  </si>
-  <si>
-    <t>ALKALIVE WTR STILL GLSS BTL 330ML</t>
-  </si>
-  <si>
-    <t>ALKALIVE WTR STILL GLSS BTL 250ML</t>
-  </si>
-  <si>
-    <t>SPARKALIVE WATER GLASS BOTTLE 330ML</t>
-  </si>
-  <si>
-    <t>SPARKALIVE WATER GLASS BOTTLE 250ML</t>
-  </si>
-  <si>
-    <t>SPARKALIVE LEMON MINT SPARKLING WATER GLASS BOTTLE 250ML</t>
-  </si>
-  <si>
-    <t>SPARKALIVE MANGO PEACH SPARKLING WATER GLASS BOTTLE 250ML</t>
-  </si>
-  <si>
-    <t>SPARKALIVE WTR GLSS BTL 330ML</t>
-  </si>
-  <si>
-    <t>SPARKALIVE WTR GLSS BTL 250ML</t>
-  </si>
-  <si>
-    <t>SPARKALIVE LMN MNT SPRK 250ML</t>
-  </si>
-  <si>
-    <t>SPARKALIVE MNG PCH SPRK 250ML</t>
-  </si>
-  <si>
-    <t>PCK</t>
-  </si>
-  <si>
-    <t>1X6PCS</t>
-  </si>
-  <si>
-    <t>DRINKING MINERAL</t>
+    <t>SP0023</t>
+  </si>
+  <si>
+    <t>CTN</t>
+  </si>
+  <si>
+    <t>1X12PCS</t>
+  </si>
+  <si>
+    <t>GROCERY FOOD</t>
+  </si>
+  <si>
+    <t>SNIPS</t>
+  </si>
+  <si>
+    <t>1X24PCS</t>
+  </si>
+  <si>
+    <t>1X48PCS</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO STICKS TRUFFLE PARMESAN 90G</t>
+  </si>
+  <si>
+    <t>SNIPS BREAD CHIPS SALT &amp; VINEGAR 85G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHIPS HONEY MUSTARD 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHIPS BARBECUE 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHIPS FRENCH CHEESE 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHIPS SALT 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHIPS SALT &amp; VINEGAR 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHIPS KETCHUP 35G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHIPS KETCHUP 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHIPS HOT CHILI 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHIPS HOT CHILI 35G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO STCK TRFL PRMSN 90G</t>
+  </si>
+  <si>
+    <t>SNIPS BRD CHPS SLT&amp;VNG 85G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHP SALT 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHP HNY MSTRD 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHP BBQ 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHP FRN CHS 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHP KTCHP 35G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHP KTCHP 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHP HT CHL 70G</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHP HT CHL 35G</t>
+  </si>
+  <si>
+    <t>SNACKS &amp; CHIPS</t>
+  </si>
+  <si>
+    <t>POTATO CANISTER</t>
+  </si>
+  <si>
+    <t>SNIPS POTATO CHP SLT&amp;VNG 70G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +227,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +248,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,38 +263,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -527,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +626,7 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -552,547 +635,784 @@
     <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>9501025238216</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>273173</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="3">
         <v>1</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="P3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="5">
         <v>14</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="5">
         <v>14</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="5">
         <v>14.75</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3">
-        <v>6300900540045</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1">
+        <v>5281128101458</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="1">
-        <v>273186</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="1">
-        <v>6</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>26</v>
+      <c r="H4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="6">
+        <v>273244</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="6">
+        <v>12</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="Q4" s="2">
-        <v>17.75</v>
+        <v>88.5</v>
       </c>
       <c r="R4" s="2">
-        <v>2.9583333333333335</v>
+        <v>7.375</v>
       </c>
       <c r="S4" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3">
-        <v>6300900540144</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1">
+        <v>5281128101564</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="6">
+        <v>273245</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="6">
+        <v>24</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1">
-        <v>273187</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="1">
-        <v>6</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>26</v>
+      <c r="P5" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="Q5" s="2">
-        <v>13.25</v>
+        <v>86.5</v>
       </c>
       <c r="R5" s="2">
-        <v>2.2083333333333335</v>
+        <v>3.6041666666666665</v>
       </c>
       <c r="S5" s="2">
-        <v>2.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>6300900540076</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
+        <v>5281128104657</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="1">
-        <v>273188</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="1">
-        <v>6</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>26</v>
+      <c r="J6" s="6">
+        <v>273246</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="6">
+        <v>24</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="Q6" s="2">
-        <v>20.75</v>
+        <v>109</v>
       </c>
       <c r="R6" s="2">
-        <v>3.4583333333333335</v>
+        <v>4.541666666666667</v>
       </c>
       <c r="S6" s="2">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>6300900540120</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1">
+        <v>5281128103896</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="1">
-        <v>273189</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="1">
-        <v>6</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>26</v>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="6">
+        <v>273247</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="6">
+        <v>24</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="Q7" s="2">
-        <v>16.25</v>
+        <v>109</v>
       </c>
       <c r="R7" s="2">
-        <v>2.7083333333333335</v>
+        <v>4.541666666666667</v>
       </c>
       <c r="S7" s="2">
-        <v>2.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6300900540106</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1">
+        <v>5281128103919</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="1">
-        <v>273190</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="1">
-        <v>6</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>26</v>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="6">
+        <v>273248</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="6">
+        <v>24</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="Q8" s="2">
-        <v>17.75</v>
+        <v>109</v>
       </c>
       <c r="R8" s="2">
-        <v>2.9583333333333335</v>
+        <v>4.541666666666667</v>
       </c>
       <c r="S8" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>6300900540168</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1">
+        <v>5281128103858</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="1">
-        <v>273191</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="1">
-        <v>6</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="H9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>26</v>
+      <c r="J9" s="6">
+        <v>273249</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="6">
+        <v>24</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="Q9" s="2">
-        <v>17.75</v>
+        <v>109</v>
       </c>
       <c r="R9" s="2">
-        <v>2.9583333333333335</v>
+        <v>4.541666666666667</v>
       </c>
       <c r="S9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>6300900540007</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1">
+        <v>5281128103872</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="6">
+        <v>273250</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="6">
+        <v>24</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="P10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>109</v>
+      </c>
+      <c r="R10" s="2">
+        <v>4.541666666666667</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1">
+        <v>5281128104688</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="1">
-        <v>273192</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="1">
-        <v>6</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>8.25</v>
-      </c>
-      <c r="R10" s="2">
-        <v>1.375</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1.5</v>
+      <c r="H11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="6">
+        <v>273251</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="6">
+        <v>48</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>108.96</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1">
+        <v>5281128104695</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="6">
+        <v>273252</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="6">
+        <v>24</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>108.96</v>
+      </c>
+      <c r="R12" s="2">
+        <v>4.54</v>
+      </c>
+      <c r="S12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1">
+        <v>5281128104824</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="6">
+        <v>273253</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="6">
+        <v>24</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>108.96</v>
+      </c>
+      <c r="R13" s="2">
+        <v>4.54</v>
+      </c>
+      <c r="S13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1">
+        <v>5281128104817</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="6">
+        <v>273254</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="6">
+        <v>48</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>108.96</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:B14">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/pyautogy/Listing/listing.xlsx
+++ b/Data/pyautogy/Listing/listing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>Company</t>
   </si>
@@ -111,107 +111,93 @@
     <t>1X24SET</t>
   </si>
   <si>
-    <t>SP0023</t>
-  </si>
-  <si>
     <t>CTN</t>
   </si>
   <si>
-    <t>1X12PCS</t>
-  </si>
-  <si>
-    <t>GROCERY FOOD</t>
-  </si>
-  <si>
-    <t>SNIPS</t>
-  </si>
-  <si>
-    <t>1X24PCS</t>
-  </si>
-  <si>
-    <t>1X48PCS</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO STICKS TRUFFLE PARMESAN 90G</t>
-  </si>
-  <si>
-    <t>SNIPS BREAD CHIPS SALT &amp; VINEGAR 85G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHIPS HONEY MUSTARD 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHIPS BARBECUE 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHIPS FRENCH CHEESE 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHIPS SALT 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHIPS SALT &amp; VINEGAR 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHIPS KETCHUP 35G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHIPS KETCHUP 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHIPS HOT CHILI 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHIPS HOT CHILI 35G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO STCK TRFL PRMSN 90G</t>
-  </si>
-  <si>
-    <t>SNIPS BRD CHPS SLT&amp;VNG 85G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHP SALT 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHP HNY MSTRD 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHP BBQ 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHP FRN CHS 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHP KTCHP 35G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHP KTCHP 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHP HT CHL 70G</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHP HT CHL 35G</t>
-  </si>
-  <si>
-    <t>SNACKS &amp; CHIPS</t>
-  </si>
-  <si>
-    <t>POTATO CANISTER</t>
-  </si>
-  <si>
-    <t>SNIPS POTATO CHP SLT&amp;VNG 70G</t>
+    <t>HEALTH</t>
+  </si>
+  <si>
+    <t>YC</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>1X1set</t>
+  </si>
+  <si>
+    <t>YC Papaya Double Whitening Soap 6sx100g @sp</t>
+  </si>
+  <si>
+    <t>YC Papaya Black Seed Soap 4sx100g @SP</t>
+  </si>
+  <si>
+    <t>YC Black Head Remover Mask Combo Pack 2x50g @SP</t>
+  </si>
+  <si>
+    <t>YC Bamboo Charcoal Mask Combo Pack 2sx100g @SP</t>
+  </si>
+  <si>
+    <t>YC Whitening Face Wash Collagen 100ml Combo Pack @SP</t>
+  </si>
+  <si>
+    <t>YC Whitening Face Wash Turmeric 100ml Combo Pack @SP</t>
+  </si>
+  <si>
+    <t>YC Vit. C Serum 30g. + Vit. C Face Wash 100ml Combo @SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YC Papaya Dbl Wht Sp 6sx100g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YC Papaya Blk Sd Sp 4sx100g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YC Blk HEAd Rmvr Msk CP 2x50g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YC Bmb ChrCL Msk CP 2sx100g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YC Wht Fc Wsh Cllgn 100ml CP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YC Wht Fc Wsh Trmrc 100ml CP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YC VitC Srm 30g + VitC Fc Wsh 100ml </t>
+  </si>
+  <si>
+    <t>BATH SOAP</t>
+  </si>
+  <si>
+    <t>BATH PROD</t>
+  </si>
+  <si>
+    <t>FACIAL CARE</t>
+  </si>
+  <si>
+    <t>FACIAL MASK</t>
+  </si>
+  <si>
+    <t>FACE WASH</t>
+  </si>
+  <si>
+    <t>FACIAL CREAM</t>
+  </si>
+  <si>
+    <t>SP0046</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +216,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,11 +272,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,14 +300,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 4 2 3 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 36 2" xfId="3"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -610,16 +613,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -643,9 +646,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="C1" s="7"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -760,7 +763,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="3">
         <v>1</v>
@@ -784,634 +787,406 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="1">
-        <v>5281128101458</v>
+        <v>8859362509186</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>48</v>
+      <c r="H4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="J4" s="6">
-        <v>273244</v>
+        <v>273267</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2">
-        <v>88.5</v>
-      </c>
-      <c r="R4" s="2">
-        <v>7.375</v>
+        <v>17.5</v>
+      </c>
+      <c r="R4" s="8">
+        <v>17.5</v>
       </c>
       <c r="S4" s="2">
-        <v>8</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="1">
-        <v>5281128101564</v>
+        <v>8859362509193</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>49</v>
+      <c r="H5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="6">
-        <v>273245</v>
+        <v>273268</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N5" s="6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2">
-        <v>86.5</v>
-      </c>
-      <c r="R5" s="2">
-        <v>3.6041666666666665</v>
-      </c>
-      <c r="S5" s="2">
-        <v>4</v>
+        <v>14.5</v>
+      </c>
+      <c r="R5" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="S5" s="8">
+        <v>15.25</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="1">
-        <v>5281128104657</v>
+        <v>8859362509254</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>51</v>
+      <c r="H6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="J6" s="6">
-        <v>273246</v>
+        <v>273269</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N6" s="6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2">
-        <v>109</v>
-      </c>
-      <c r="R6" s="2">
-        <v>4.541666666666667</v>
-      </c>
-      <c r="S6" s="2">
-        <v>5</v>
+        <v>19.5</v>
+      </c>
+      <c r="R6" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="S6" s="8">
+        <v>20.5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="1">
-        <v>5281128103896</v>
+        <v>8859362509261</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>52</v>
+      <c r="H7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="J7" s="6">
-        <v>273247</v>
+        <v>273270</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7" s="6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2">
-        <v>109</v>
-      </c>
-      <c r="R7" s="2">
-        <v>4.541666666666667</v>
-      </c>
-      <c r="S7" s="2">
-        <v>5</v>
+        <v>19.5</v>
+      </c>
+      <c r="R7" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="S7" s="8">
+        <v>20.5</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="1">
-        <v>5281128103919</v>
+        <v>8859362510311</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>53</v>
+      <c r="H8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="J8" s="6">
-        <v>273248</v>
+        <v>273271</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N8" s="6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2">
-        <v>109</v>
-      </c>
-      <c r="R8" s="2">
-        <v>4.541666666666667</v>
-      </c>
-      <c r="S8" s="2">
-        <v>5</v>
+        <v>15.5</v>
+      </c>
+      <c r="R8" s="8">
+        <v>15.5</v>
+      </c>
+      <c r="S8" s="8">
+        <v>16.25</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1">
-        <v>5281128103858</v>
+        <v>8859362510304</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>50</v>
+      <c r="H9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="J9" s="6">
-        <v>273249</v>
+        <v>273272</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N9" s="6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2">
-        <v>109</v>
-      </c>
-      <c r="R9" s="2">
-        <v>4.541666666666667</v>
-      </c>
-      <c r="S9" s="2">
-        <v>5</v>
+        <v>15.5</v>
+      </c>
+      <c r="R9" s="8">
+        <v>15.5</v>
+      </c>
+      <c r="S9" s="8">
+        <v>16.25</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="1">
-        <v>5281128103872</v>
+        <v>8859362510328</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>60</v>
+      <c r="H10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="J10" s="6">
-        <v>273250</v>
+        <v>273273</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N10" s="6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2">
-        <v>109</v>
-      </c>
-      <c r="R10" s="2">
-        <v>4.541666666666667</v>
-      </c>
-      <c r="S10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1">
-        <v>5281128104688</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="6">
-        <v>273251</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="6">
-        <v>48</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>108.96</v>
-      </c>
-      <c r="R11" s="2">
-        <v>2.27</v>
-      </c>
-      <c r="S11" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1">
-        <v>5281128104695</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="6">
-        <v>273252</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="6">
-        <v>24</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>108.96</v>
-      </c>
-      <c r="R12" s="2">
-        <v>4.54</v>
-      </c>
-      <c r="S12" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1">
-        <v>5281128104824</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="6">
-        <v>273253</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="6">
-        <v>24</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>108.96</v>
-      </c>
-      <c r="R13" s="2">
-        <v>4.54</v>
-      </c>
-      <c r="S13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1">
-        <v>5281128104817</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="6">
-        <v>273254</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="6">
-        <v>48</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>108.96</v>
-      </c>
-      <c r="R14" s="2">
-        <v>2.27</v>
-      </c>
-      <c r="S14" s="2">
-        <v>2.5</v>
+        <v>23.5</v>
+      </c>
+      <c r="R10" s="8">
+        <v>23.5</v>
+      </c>
+      <c r="S10" s="8">
+        <v>24.75</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B14">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B4:B10">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
